--- a/medicine/Enfance/Takeda_Miho_(illustratrice)/Takeda_Miho_(illustratrice).xlsx
+++ b/medicine/Enfance/Takeda_Miho_(illustratrice)/Takeda_Miho_(illustratrice).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Takeda Miho (武田美穂) est une auteure illustratrice d’albums illustrés jeunesse. Elle est traduite et éditée en France par les éditions nobi nobi !.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Miho Takeda est née le 28 décembre 1959 à Tokyo. Elle entre à la faculté d’arts de l’université Nihon, section peinture à l’huile[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Miho Takeda est née le 28 décembre 1959 à Tokyo. Elle entre à la faculté d’arts de l’université Nihon, section peinture à l’huile.
 Miho Takeda raconte le quotidien des plus petits.[réf. nécessaire]
-Elle crée les personnages de Ganko (ざわざわ森のがんこちゃん, zawazawamori no gankochan), une émission pour enfants dont les personnages sont des marionnettes représentant des animaux et qui sera diffusée sur la chaîne de télévision NHK[1]
-Elle collabore à différentes histoires illustrées avec d'autres auteurs pour la jeunesse mais écrit également ses propres récits[1].
+Elle crée les personnages de Ganko (ざわざわ森のがんこちゃん, zawazawamori no gankochan), une émission pour enfants dont les personnages sont des marionnettes représentant des animaux et qui sera diffusée sur la chaîne de télévision NHK
+Elle collabore à différentes histoires illustrées avec d'autres auteurs pour la jeunesse mais écrit également ses propres récits.
 </t>
         </is>
       </c>
@@ -545,10 +559,12 @@
           <t>Prix reçus</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Prix National du Livre d’images avec Tonari no seki no Masuda-kun (となりのせきの ますだくん) (traduit en Mon voisin Masuda)[1]
-Prix Culturel des éditions Kodansha avec Tonari no seki no Masuda-kun[1]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Prix National du Livre d’images avec Tonari no seki no Masuda-kun (となりのせきの ますだくん) (traduit en Mon voisin Masuda)
+Prix Culturel des éditions Kodansha avec Tonari no seki no Masuda-kun</t>
         </is>
       </c>
     </row>
@@ -578,9 +594,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>En version originale
-Auteur et illustratrice
-Série Masuda-Kun (ますだくん), édité chez Poplar Publishing Co. LTD. (ポプラ社)
+          <t>En version originale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Auteur et illustratrice</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Série Masuda-Kun (ますだくん), édité chez Poplar Publishing Co. LTD. (ポプラ社)
 となりのせきのますだくん, 1991
 ますだくんのランドセル, 1995  (ISBN 4591043371)
 ますだくんの1ねんせい日記, 1996
@@ -595,14 +619,120 @@
 きょうはすてきなおばけの日！, 1992
 あいうえおちあいくん, 1994
 きょうはすてきなくらげの日！, 1998
-すみっこのおばけ, 2000
-Pour la télévision
-zawazawamori no gankochan (ざわざわ森のがんこちゃん), pour la NHK.
-やんちゃるモンちゃ, pour la NHK.
-Emballage
-Illustration de トラベルミン, pour l'entreprise pharmaceutique Eisai Co.,
-Traductions en français
-Mon voisin Masuda (となりのせきの ますだくん), éditions nobi nobi !  (ISBN 2918857173)
+すみっこのおばけ, 2000</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Takeda_Miho_(illustratrice)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Takeda_Miho_(illustratrice)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>En version originale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Pour la télévision</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>zawazawamori no gankochan (ざわざわ森のがんこちゃん), pour la NHK.
+やんちゃるモンちゃ, pour la NHK.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Takeda_Miho_(illustratrice)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Takeda_Miho_(illustratrice)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Emballage</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Illustration de トラベルミン, pour l'entreprise pharmaceutique Eisai Co.,</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Takeda_Miho_(illustratrice)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Takeda_Miho_(illustratrice)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Traductions en français</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Mon voisin Masuda (となりのせきの ますだくん), éditions nobi nobi !  (ISBN 2918857173)
 Le Mons'trouille, éditions nobi nobi !  (ISBN 2918857270)</t>
         </is>
       </c>
